--- a/reporting/СКВАЖИНВ3.xlsx
+++ b/reporting/СКВАЖИНВ3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCMDB\reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E9FDD6-AE47-45BC-BAF3-D79EE6237651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C26AF2-BFF7-439D-9B84-A6A3FBD55742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5545" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5546" uniqueCount="658">
   <si>
     <t>№ п/п</t>
   </si>
@@ -2012,6 +2012,9 @@
   </si>
   <si>
     <t>средняя скорость</t>
+  </si>
+  <si>
+    <t>Средняя скорость, м/сутки</t>
   </si>
 </sst>
 </file>
@@ -2295,7 +2298,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2416,6 +2419,9 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2424,858 +2430,7 @@
     <cellStyle name="Обычный_Лист3" xfId="3" xr:uid="{47EFC6D6-FD84-406F-88D6-7C11D31D4EE5}"/>
     <cellStyle name="Обычный_Лист7" xfId="4" xr:uid="{27833F23-BAA6-4D3C-B61B-D0EE635794DB}"/>
   </cellStyles>
-  <dxfs count="56">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="22"/>
-        </left>
-        <right style="thin">
-          <color indexed="22"/>
-        </right>
-        <top style="thin">
-          <color indexed="22"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="22"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="22"/>
-        </left>
-        <right style="thin">
-          <color indexed="22"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="22"/>
-        </left>
-        <right style="thin">
-          <color indexed="22"/>
-        </right>
-        <top style="thin">
-          <color indexed="22"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="22"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="22"/>
-        </left>
-        <right style="thin">
-          <color indexed="22"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="22"/>
-        </left>
-        <right style="thin">
-          <color indexed="22"/>
-        </right>
-        <top style="thin">
-          <color indexed="22"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="22"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="22"/>
-        </left>
-        <right style="thin">
-          <color indexed="22"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="8" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="22"/>
-        </left>
-        <right style="thin">
-          <color indexed="22"/>
-        </right>
-        <top style="thin">
-          <color indexed="22"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="22"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="22"/>
-        </left>
-        <right style="thin">
-          <color indexed="22"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="22"/>
-        </left>
-        <right style="thin">
-          <color indexed="22"/>
-        </right>
-        <top style="thin">
-          <color indexed="22"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="22"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="22"/>
-        </left>
-        <right style="thin">
-          <color indexed="22"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="22"/>
-        </left>
-        <right style="thin">
-          <color indexed="22"/>
-        </right>
-        <top style="thin">
-          <color indexed="22"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="22"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="22"/>
-        </left>
-        <right style="thin">
-          <color indexed="22"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="22"/>
-        </left>
-        <right style="thin">
-          <color indexed="22"/>
-        </right>
-        <top style="thin">
-          <color indexed="22"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="22"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="22"/>
-        </left>
-        <right style="thin">
-          <color indexed="22"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="22"/>
-        </left>
-        <right style="thin">
-          <color indexed="22"/>
-        </right>
-        <top style="thin">
-          <color indexed="22"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="22"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="22"/>
-        </left>
-        <right style="thin">
-          <color indexed="22"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="22"/>
-        </left>
-        <right style="thin">
-          <color indexed="22"/>
-        </right>
-        <top style="thin">
-          <color indexed="22"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="22"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="22"/>
-        </left>
-        <right style="thin">
-          <color indexed="22"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="22"/>
-        </left>
-        <right style="thin">
-          <color indexed="22"/>
-        </right>
-        <top style="thin">
-          <color indexed="22"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="22"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="22"/>
-        </left>
-        <right style="thin">
-          <color indexed="22"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="22"/>
-        </left>
-        <right style="thin">
-          <color indexed="22"/>
-        </right>
-        <top style="thin">
-          <color indexed="22"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="22"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="22"/>
-        </left>
-        <right style="thin">
-          <color indexed="22"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
+  <dxfs count="58">
     <dxf>
       <font>
         <b val="0"/>
@@ -3294,162 +2449,6 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="22"/>
-        </left>
-        <right style="thin">
-          <color indexed="22"/>
-        </right>
-        <top style="thin">
-          <color indexed="22"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="22"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="22"/>
-        </left>
-        <right style="thin">
-          <color indexed="22"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC0C0C0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="0"/>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="8"/>
-        </left>
-        <right style="thin">
-          <color indexed="8"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="8" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3534,7 +2533,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="22"/>
@@ -3564,49 +2563,11 @@
         <sz val="11"/>
         <color indexed="8"/>
         <name val="Calibri"/>
+        <family val="2"/>
         <charset val="204"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="22"/>
-        </left>
-        <right style="thin">
-          <color indexed="22"/>
-        </right>
-        <top style="thin">
-          <color indexed="22"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="22"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3621,13 +2582,10 @@
         <right style="thin">
           <color indexed="22"/>
         </right>
-        <top style="thin">
-          <color indexed="22"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="22"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4126,6 +3084,47 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="22"/>
+        </left>
+        <right style="thin">
+          <color indexed="22"/>
+        </right>
+        <top style="thin">
+          <color indexed="22"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="22"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -4147,7 +3146,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="22"/>
@@ -4378,6 +3377,127 @@
         <scheme val="none"/>
       </font>
       <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="22"/>
+        </left>
+        <right style="thin">
+          <color indexed="22"/>
+        </right>
+        <top style="thin">
+          <color indexed="22"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="22"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="22"/>
+        </left>
+        <right style="thin">
+          <color indexed="22"/>
+        </right>
+        <top style="thin">
+          <color indexed="22"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="22"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC0C0C0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
         <patternFill patternType="solid">
           <fgColor indexed="0"/>
           <bgColor indexed="22"/>
@@ -4393,6 +3513,945 @@
         </right>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="22"/>
+        </left>
+        <right style="thin">
+          <color indexed="22"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="22"/>
+        </left>
+        <right style="thin">
+          <color indexed="22"/>
+        </right>
+        <top style="thin">
+          <color indexed="22"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="22"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="22"/>
+        </left>
+        <right style="thin">
+          <color indexed="22"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="22"/>
+        </left>
+        <right style="thin">
+          <color indexed="22"/>
+        </right>
+        <top style="thin">
+          <color indexed="22"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="22"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="22"/>
+        </left>
+        <right style="thin">
+          <color indexed="22"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="22"/>
+        </left>
+        <right style="thin">
+          <color indexed="22"/>
+        </right>
+        <top style="thin">
+          <color indexed="22"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="22"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="22"/>
+        </left>
+        <right style="thin">
+          <color indexed="22"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="22"/>
+        </left>
+        <right style="thin">
+          <color indexed="22"/>
+        </right>
+        <top style="thin">
+          <color indexed="22"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="22"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="22"/>
+        </left>
+        <right style="thin">
+          <color indexed="22"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="22"/>
+        </left>
+        <right style="thin">
+          <color indexed="22"/>
+        </right>
+        <top style="thin">
+          <color indexed="22"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="22"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="22"/>
+        </left>
+        <right style="thin">
+          <color indexed="22"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="22"/>
+        </left>
+        <right style="thin">
+          <color indexed="22"/>
+        </right>
+        <top style="thin">
+          <color indexed="22"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="22"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="22"/>
+        </left>
+        <right style="thin">
+          <color indexed="22"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="22"/>
+        </left>
+        <right style="thin">
+          <color indexed="22"/>
+        </right>
+        <top style="thin">
+          <color indexed="22"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="22"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="22"/>
+        </left>
+        <right style="thin">
+          <color indexed="22"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="22"/>
+        </left>
+        <right style="thin">
+          <color indexed="22"/>
+        </right>
+        <top style="thin">
+          <color indexed="22"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="22"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="22"/>
+        </left>
+        <right style="thin">
+          <color indexed="22"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="22"/>
+        </left>
+        <right style="thin">
+          <color indexed="22"/>
+        </right>
+        <top style="thin">
+          <color indexed="22"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="22"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="22"/>
+        </left>
+        <right style="thin">
+          <color indexed="22"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="22"/>
+        </left>
+        <right style="thin">
+          <color indexed="22"/>
+        </right>
+        <top style="thin">
+          <color indexed="22"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="22"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="22"/>
+        </left>
+        <right style="thin">
+          <color indexed="22"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="22"/>
+        </left>
+        <right style="thin">
+          <color indexed="22"/>
+        </right>
+        <top style="thin">
+          <color indexed="22"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="22"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="22"/>
+        </left>
+        <right style="thin">
+          <color indexed="22"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="22"/>
+        </left>
+        <right style="thin">
+          <color indexed="22"/>
+        </right>
+        <top style="thin">
+          <color indexed="22"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="22"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="22"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -4428,13 +4487,38 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="0"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
           <color indexed="8"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="22"/>
-        </bottom>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -4456,85 +4540,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7AAEEA80-A00C-4ABB-8C5F-2C287E6AC446}" name="Таблица4" displayName="Таблица4" ref="A1:L260" totalsRowCount="1" headerRowDxfId="52" dataDxfId="53" headerRowBorderDxfId="54" tableBorderDxfId="55" headerRowCellStyle="Обычный_Лист7" dataCellStyle="Обычный_Лист7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7AAEEA80-A00C-4ABB-8C5F-2C287E6AC446}" name="Таблица4" displayName="Таблица4" ref="A1:L260" totalsRowCount="1" headerRowDxfId="57" dataDxfId="55" headerRowBorderDxfId="56" tableBorderDxfId="54" headerRowCellStyle="Обычный_Лист7" dataCellStyle="Обычный_Лист7">
   <autoFilter ref="A1:L259" xr:uid="{7AAEEA80-A00C-4ABB-8C5F-2C287E6AC446}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{2B327724-103F-428B-BF76-A0FFE5040991}" name="№ п/п" totalsRowLabel="Итог" dataDxfId="31" totalsRowDxfId="44" dataCellStyle="Обычный_Лист7"/>
-    <tableColumn id="2" xr3:uid="{6F6C148F-73B3-4B6D-91DB-6F0533788F97}" name="Скважина" dataDxfId="32" totalsRowDxfId="43" dataCellStyle="Обычный_Лист7"/>
-    <tableColumn id="3" xr3:uid="{D66E3D4E-1FE2-40E7-8BEF-6C890BE3C474}" name="Вид скважины" dataDxfId="51" totalsRowDxfId="42" dataCellStyle="Обычный_Лист7"/>
-    <tableColumn id="4" xr3:uid="{1A7AA422-3143-4941-8052-FBF9A1A3816F}" name="Вид работ" dataDxfId="50" totalsRowDxfId="41" dataCellStyle="Обычный_Лист7"/>
-    <tableColumn id="5" xr3:uid="{435FC056-8930-498E-91E1-B0690B4C345E}" name="План, метров" totalsRowFunction="sum" dataDxfId="49" totalsRowDxfId="40" dataCellStyle="Обычный_Лист7"/>
-    <tableColumn id="6" xr3:uid="{E6B95546-8E56-4B6B-A52F-FBC5E8CB85AE}" name="Факт,метров" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="39" dataCellStyle="Обычный_Лист7"/>
-    <tableColumn id="7" xr3:uid="{853CAC0B-ED30-418B-A073-EE99E035FF15}" name="Станок" dataDxfId="47" totalsRowDxfId="38" dataCellStyle="Обычный_Лист7"/>
-    <tableColumn id="8" xr3:uid="{796BA0E8-54C9-43AF-B17C-4E6F2319060B}" name="Начало" dataDxfId="30" totalsRowDxfId="37" dataCellStyle="Обычный_Лист7"/>
-    <tableColumn id="9" xr3:uid="{3E7F389C-2D29-4145-9EDF-D38D16D1DEEE}" name="Продолжительность" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="36" dataCellStyle="Обычный_Лист7"/>
-    <tableColumn id="10" xr3:uid="{8900E994-9906-40F6-AAB5-20059CC4A5AF}" name="Контрагент" dataDxfId="29" totalsRowDxfId="35" dataCellStyle="Обычный_Лист7"/>
-    <tableColumn id="11" xr3:uid="{03FB2A6E-CD0F-4F5D-8AA4-604157D7C367}" name="Примечание" dataDxfId="46" totalsRowDxfId="34" dataCellStyle="Обычный_Лист7"/>
-    <tableColumn id="12" xr3:uid="{517D93F8-CBA4-4837-894B-2A9DA98B90D9}" name="Договор" dataDxfId="45" totalsRowDxfId="33" dataCellStyle="Обычный_Лист7"/>
+    <tableColumn id="1" xr3:uid="{2B327724-103F-428B-BF76-A0FFE5040991}" name="№ п/п" totalsRowLabel="Итог" dataDxfId="53" totalsRowDxfId="52" dataCellStyle="Обычный_Лист7"/>
+    <tableColumn id="2" xr3:uid="{6F6C148F-73B3-4B6D-91DB-6F0533788F97}" name="Скважина" dataDxfId="51" totalsRowDxfId="50" dataCellStyle="Обычный_Лист7"/>
+    <tableColumn id="3" xr3:uid="{D66E3D4E-1FE2-40E7-8BEF-6C890BE3C474}" name="Вид скважины" dataDxfId="49" totalsRowDxfId="48" dataCellStyle="Обычный_Лист7"/>
+    <tableColumn id="4" xr3:uid="{1A7AA422-3143-4941-8052-FBF9A1A3816F}" name="Вид работ" dataDxfId="47" totalsRowDxfId="46" dataCellStyle="Обычный_Лист7"/>
+    <tableColumn id="5" xr3:uid="{435FC056-8930-498E-91E1-B0690B4C345E}" name="План, метров" totalsRowFunction="sum" dataDxfId="45" totalsRowDxfId="44" dataCellStyle="Обычный_Лист7"/>
+    <tableColumn id="6" xr3:uid="{E6B95546-8E56-4B6B-A52F-FBC5E8CB85AE}" name="Факт,метров" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="42" dataCellStyle="Обычный_Лист7"/>
+    <tableColumn id="7" xr3:uid="{853CAC0B-ED30-418B-A073-EE99E035FF15}" name="Станок" dataDxfId="41" totalsRowDxfId="40" dataCellStyle="Обычный_Лист7"/>
+    <tableColumn id="8" xr3:uid="{796BA0E8-54C9-43AF-B17C-4E6F2319060B}" name="Начало" dataDxfId="39" totalsRowDxfId="38" dataCellStyle="Обычный_Лист7"/>
+    <tableColumn id="9" xr3:uid="{3E7F389C-2D29-4145-9EDF-D38D16D1DEEE}" name="Продолжительность" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="36" dataCellStyle="Обычный_Лист7"/>
+    <tableColumn id="10" xr3:uid="{8900E994-9906-40F6-AAB5-20059CC4A5AF}" name="Контрагент" dataDxfId="35" totalsRowDxfId="34" dataCellStyle="Обычный_Лист7"/>
+    <tableColumn id="11" xr3:uid="{03FB2A6E-CD0F-4F5D-8AA4-604157D7C367}" name="Примечание" dataDxfId="33" totalsRowDxfId="32" dataCellStyle="Обычный_Лист7"/>
+    <tableColumn id="12" xr3:uid="{517D93F8-CBA4-4837-894B-2A9DA98B90D9}" name="Договор" dataDxfId="31" totalsRowDxfId="30" dataCellStyle="Обычный_Лист7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{094D80F7-4715-4F34-A79F-515C4FB070C5}" name="Таблица46" displayName="Таблица46" ref="A1:L260" totalsRowCount="1" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25" headerRowCellStyle="Обычный_Лист7" dataCellStyle="Обычный_Лист7">
-  <autoFilter ref="A1:L259" xr:uid="{7AAEEA80-A00C-4ABB-8C5F-2C287E6AC446}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Будівництво свердловини"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="8">
-      <filters>
-        <filter val="117,00"/>
-        <filter val="127,29"/>
-        <filter val="130,29"/>
-        <filter val="138,00"/>
-        <filter val="139,29"/>
-        <filter val="156,29"/>
-        <filter val="165,25"/>
-        <filter val="185,00"/>
-        <filter val="205,29"/>
-        <filter val="206,71"/>
-        <filter val="208,29"/>
-        <filter val="210,29"/>
-        <filter val="237,75"/>
-        <filter val="242,29"/>
-        <filter val="248,29"/>
-        <filter val="307,28"/>
-        <filter val="312,29"/>
-        <filter val="331,13"/>
-        <filter val="337,34"/>
-        <filter val="337,71"/>
-        <filter val="350,58"/>
-        <filter val="375,29"/>
-        <filter val="419,00"/>
-        <filter val="432,29"/>
-        <filter val="435,50"/>
-        <filter val="475,29"/>
-        <filter val="476,31"/>
-        <filter val="534,71"/>
-        <filter val="644,29"/>
-        <filter val="701,00"/>
-        <filter val="72,29"/>
-        <filter val="726,00"/>
-        <filter val="79,25"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{6AA0281A-DEC8-4227-B3CA-49FCF1246F51}" name="№ п/п" totalsRowLabel="Итог" dataDxfId="22" totalsRowDxfId="23" dataCellStyle="Обычный_Лист7"/>
-    <tableColumn id="2" xr3:uid="{80EE7EC1-B3BB-4359-BA54-4B1DFF9F3E65}" name="Скважина" dataDxfId="20" totalsRowDxfId="21" dataCellStyle="Обычный_Лист7"/>
-    <tableColumn id="3" xr3:uid="{EE6C9968-0E4E-4AE7-A6E7-4AD6D072A8E4}" name="Вид скважины" dataDxfId="18" totalsRowDxfId="19" dataCellStyle="Обычный_Лист7"/>
-    <tableColumn id="4" xr3:uid="{07744CF3-594D-4803-81D5-E20783779F86}" name="Вид работ" dataDxfId="16" totalsRowDxfId="17" dataCellStyle="Обычный_Лист7"/>
-    <tableColumn id="5" xr3:uid="{B86B6E0C-4D05-403A-BA6D-14FAF5A07421}" name="План, метров" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="15" dataCellStyle="Обычный_Лист7"/>
-    <tableColumn id="6" xr3:uid="{A1C8F752-EC9D-4695-B880-95BBB2808A30}" name="Факт,метров" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="13" dataCellStyle="Обычный_Лист7"/>
-    <tableColumn id="7" xr3:uid="{2ECC17CA-2628-44E8-86F6-EE307760F738}" name="Станок" dataDxfId="10" totalsRowDxfId="11" dataCellStyle="Обычный_Лист7"/>
-    <tableColumn id="8" xr3:uid="{FBEE512E-2F6B-402D-A4A8-CD64013BD815}" name="Начало" dataDxfId="8" totalsRowDxfId="9" dataCellStyle="Обычный_Лист7"/>
-    <tableColumn id="9" xr3:uid="{B746485C-1298-424E-87D5-90BA6500CADC}" name="Продолжительность" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="7" dataCellStyle="Обычный_Лист7"/>
-    <tableColumn id="10" xr3:uid="{36534205-5B3B-4013-BE74-412330EE49CC}" name="Контрагент" dataDxfId="4" totalsRowDxfId="5" dataCellStyle="Обычный_Лист7"/>
-    <tableColumn id="11" xr3:uid="{AD171435-453B-45DC-80DD-469D3C6EB56E}" name="Примечание" dataDxfId="2" totalsRowDxfId="3" dataCellStyle="Обычный_Лист7"/>
-    <tableColumn id="12" xr3:uid="{A85D1320-742B-46FF-8C9F-580E7DA457F1}" name="Договор" dataDxfId="0" totalsRowDxfId="1" dataCellStyle="Обычный_Лист7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{094D80F7-4715-4F34-A79F-515C4FB070C5}" name="Таблица46" displayName="Таблица46" ref="A1:M260" totalsRowCount="1" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" headerRowCellStyle="Обычный_Лист7" dataCellStyle="Обычный_Лист7">
+  <autoFilter ref="A1:M259" xr:uid="{7AAEEA80-A00C-4ABB-8C5F-2C287E6AC446}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{6AA0281A-DEC8-4227-B3CA-49FCF1246F51}" name="№ п/п" totalsRowLabel="Итог" dataDxfId="25" totalsRowDxfId="15" dataCellStyle="Обычный_Лист7"/>
+    <tableColumn id="2" xr3:uid="{80EE7EC1-B3BB-4359-BA54-4B1DFF9F3E65}" name="Скважина" dataDxfId="24" totalsRowDxfId="14" dataCellStyle="Обычный_Лист7"/>
+    <tableColumn id="3" xr3:uid="{EE6C9968-0E4E-4AE7-A6E7-4AD6D072A8E4}" name="Вид скважины" dataDxfId="23" totalsRowDxfId="13" dataCellStyle="Обычный_Лист7"/>
+    <tableColumn id="4" xr3:uid="{07744CF3-594D-4803-81D5-E20783779F86}" name="Вид работ" dataDxfId="22" totalsRowDxfId="12" dataCellStyle="Обычный_Лист7"/>
+    <tableColumn id="5" xr3:uid="{B86B6E0C-4D05-403A-BA6D-14FAF5A07421}" name="План, метров" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="11" dataCellStyle="Обычный_Лист7"/>
+    <tableColumn id="6" xr3:uid="{A1C8F752-EC9D-4695-B880-95BBB2808A30}" name="Факт,метров" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="10" dataCellStyle="Обычный_Лист7"/>
+    <tableColumn id="7" xr3:uid="{2ECC17CA-2628-44E8-86F6-EE307760F738}" name="Станок" dataDxfId="19" totalsRowDxfId="9" dataCellStyle="Обычный_Лист7"/>
+    <tableColumn id="8" xr3:uid="{FBEE512E-2F6B-402D-A4A8-CD64013BD815}" name="Начало" dataDxfId="18" totalsRowDxfId="8" dataCellStyle="Обычный_Лист7"/>
+    <tableColumn id="9" xr3:uid="{B746485C-1298-424E-87D5-90BA6500CADC}" name="Продолжительность" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="7" dataCellStyle="Обычный_Лист7"/>
+    <tableColumn id="10" xr3:uid="{36534205-5B3B-4013-BE74-412330EE49CC}" name="Контрагент" dataDxfId="16" totalsRowDxfId="6" dataCellStyle="Обычный_Лист7"/>
+    <tableColumn id="11" xr3:uid="{AD171435-453B-45DC-80DD-469D3C6EB56E}" name="Примечание" dataDxfId="2" totalsRowDxfId="5" dataCellStyle="Обычный_Лист7"/>
+    <tableColumn id="13" xr3:uid="{6E0D5D19-18A8-4166-9790-41DA149D05AD}" name="Средняя скорость, м/сутки" dataDxfId="0" totalsRowDxfId="4" dataCellStyle="Обычный_Лист7">
+      <calculatedColumnFormula>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{A85D1320-742B-46FF-8C9F-580E7DA457F1}" name="Договор" dataDxfId="1" totalsRowDxfId="3" dataCellStyle="Обычный_Лист7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -21696,10 +21740,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE5542E-1200-4826-92A3-A29639885226}">
-  <dimension ref="A1:L262"/>
+  <dimension ref="A1:M262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21714,10 +21758,11 @@
     <col min="9" max="9" width="19.54296875" customWidth="1"/>
     <col min="10" max="10" width="21.54296875" customWidth="1"/>
     <col min="11" max="11" width="13.7265625" customWidth="1"/>
-    <col min="12" max="12" width="15.6328125" customWidth="1"/>
+    <col min="12" max="12" width="18.08984375" customWidth="1"/>
+    <col min="13" max="13" width="15.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -21751,11 +21796,14 @@
       <c r="K1" s="39" t="s">
         <v>457</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="L1" s="46" t="s">
+        <v>657</v>
+      </c>
+      <c r="M1" s="39" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="33">
         <v>142</v>
       </c>
@@ -21789,11 +21837,15 @@
       <c r="K2" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="L2" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="28" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="33">
         <v>143</v>
       </c>
@@ -21827,11 +21879,15 @@
       <c r="K3" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="L3" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="28" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="33">
         <v>188</v>
       </c>
@@ -21865,11 +21921,15 @@
       <c r="K4" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L4" s="28" t="s">
+      <c r="L4" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="28" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="33">
         <v>222</v>
       </c>
@@ -21903,11 +21963,15 @@
       <c r="K5" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L5" s="28" t="s">
+      <c r="L5" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="28" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="33">
         <v>223</v>
       </c>
@@ -21941,11 +22005,15 @@
       <c r="K6" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L6" s="28" t="s">
+      <c r="L6" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="28" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="33">
         <v>224</v>
       </c>
@@ -21979,11 +22047,15 @@
       <c r="K7" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L7" s="28" t="s">
+      <c r="L7" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="28" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="33">
         <v>225</v>
       </c>
@@ -22017,11 +22089,15 @@
       <c r="K8" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L8" s="28" t="s">
+      <c r="L8" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="28" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="33">
         <v>226</v>
       </c>
@@ -22055,11 +22131,15 @@
       <c r="K9" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L9" s="28" t="s">
+      <c r="L9" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="28" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="33">
         <v>227</v>
       </c>
@@ -22093,11 +22173,15 @@
       <c r="K10" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L10" s="28" t="s">
+      <c r="L10" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="28" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="33">
         <v>51</v>
       </c>
@@ -22131,11 +22215,15 @@
       <c r="K11" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L11" s="28" t="s">
+      <c r="L11" s="30">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>15.987168414558907</v>
+      </c>
+      <c r="M11" s="28" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="33">
         <v>144</v>
       </c>
@@ -22167,11 +22255,15 @@
       <c r="K12" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L12" s="28" t="s">
+      <c r="L12" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M12" s="28" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="33">
         <v>145</v>
       </c>
@@ -22203,11 +22295,15 @@
       <c r="K13" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L13" s="28" t="s">
+      <c r="L13" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="28" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="33">
         <v>146</v>
       </c>
@@ -22239,11 +22335,15 @@
       <c r="K14" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L14" s="28" t="s">
+      <c r="L14" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="28" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="33">
         <v>147</v>
       </c>
@@ -22275,11 +22375,15 @@
       <c r="K15" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L15" s="28" t="s">
+      <c r="L15" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="28" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="33">
         <v>45</v>
       </c>
@@ -22311,11 +22415,15 @@
       <c r="K16" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L16" s="28" t="s">
+      <c r="L16" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M16" s="28" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="33">
         <v>53</v>
       </c>
@@ -22349,11 +22457,15 @@
       <c r="K17" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L17" s="28" t="s">
+      <c r="L17" s="30">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>13.365155131264919</v>
+      </c>
+      <c r="M17" s="28" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="33">
         <v>148</v>
       </c>
@@ -22387,11 +22499,15 @@
       <c r="K18" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L18" s="28" t="s">
+      <c r="L18" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="28" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="33">
         <v>149</v>
       </c>
@@ -22425,11 +22541,15 @@
       <c r="K19" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L19" s="28" t="s">
+      <c r="L19" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="28" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="33">
         <v>203</v>
       </c>
@@ -22463,11 +22583,15 @@
       <c r="K20" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L20" s="28" t="s">
+      <c r="L20" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="28" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="33">
         <v>229</v>
       </c>
@@ -22501,11 +22625,15 @@
       <c r="K21" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L21" s="28" t="s">
+      <c r="L21" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="28" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="33">
         <v>33</v>
       </c>
@@ -22539,11 +22667,15 @@
       <c r="K22" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L22" s="28" t="s">
+      <c r="L22" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="28" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="33">
         <v>56</v>
       </c>
@@ -22577,11 +22709,15 @@
       <c r="K23" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L23" s="28" t="s">
+      <c r="L23" s="30">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>24.936887360275168</v>
+      </c>
+      <c r="M23" s="28" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="33">
         <v>189</v>
       </c>
@@ -22615,11 +22751,15 @@
       <c r="K24" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L24" s="28" t="s">
+      <c r="L24" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="28" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="33">
         <v>190</v>
       </c>
@@ -22653,11 +22793,15 @@
       <c r="K25" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L25" s="28" t="s">
+      <c r="L25" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="28" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="33">
         <v>54</v>
       </c>
@@ -22691,11 +22835,15 @@
       <c r="K26" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L26" s="28" t="s">
+      <c r="L26" s="30">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>13.455797933409784</v>
+      </c>
+      <c r="M26" s="28" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="33">
         <v>125</v>
       </c>
@@ -22729,11 +22877,15 @@
       <c r="K27" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L27" s="28" t="s">
+      <c r="L27" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="28" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="33">
         <v>191</v>
       </c>
@@ -22767,11 +22919,15 @@
       <c r="K28" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L28" s="28" t="s">
+      <c r="L28" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="28" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="33">
         <v>208</v>
       </c>
@@ -22805,11 +22961,15 @@
       <c r="K29" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L29" s="28" t="s">
+      <c r="L29" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="28" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="33">
         <v>211</v>
       </c>
@@ -22843,11 +23003,15 @@
       <c r="K30" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L30" s="28" t="s">
+      <c r="L30" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="28" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="33">
         <v>214</v>
       </c>
@@ -22881,11 +23045,15 @@
       <c r="K31" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L31" s="28" t="s">
+      <c r="L31" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="28" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="33">
         <v>215</v>
       </c>
@@ -22919,11 +23087,15 @@
       <c r="K32" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L32" s="28" t="s">
+      <c r="L32" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="28" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="33">
         <v>216</v>
       </c>
@@ -22957,11 +23129,15 @@
       <c r="K33" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L33" s="28" t="s">
+      <c r="L33" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="28" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="33">
         <v>217</v>
       </c>
@@ -22995,11 +23171,15 @@
       <c r="K34" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L34" s="28" t="s">
+      <c r="L34" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="28" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="33">
         <v>218</v>
       </c>
@@ -23033,11 +23213,15 @@
       <c r="K35" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L35" s="28" t="s">
+      <c r="L35" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="28" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="33">
         <v>234</v>
       </c>
@@ -23071,11 +23255,15 @@
       <c r="K36" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L36" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L36" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M36" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="33">
         <v>251</v>
       </c>
@@ -23109,11 +23297,15 @@
       <c r="K37" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L37" s="28" t="s">
+      <c r="L37" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="28" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="33">
         <v>55</v>
       </c>
@@ -23147,11 +23339,15 @@
       <c r="K38" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L38" s="28" t="s">
+      <c r="L38" s="30">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>20.183235779339658</v>
+      </c>
+      <c r="M38" s="28" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="33">
         <v>10</v>
       </c>
@@ -23185,11 +23381,15 @@
       <c r="K39" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L39" s="28" t="s">
+      <c r="L39" s="30">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>18.886190793862529</v>
+      </c>
+      <c r="M39" s="28" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="33">
         <v>141</v>
       </c>
@@ -23223,11 +23423,15 @@
       <c r="K40" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L40" s="28" t="s">
+      <c r="L40" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M40" s="28" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="33">
         <v>192</v>
       </c>
@@ -23261,11 +23465,15 @@
       <c r="K41" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L41" s="28" t="s">
+      <c r="L41" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M41" s="28" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="33">
         <v>283</v>
       </c>
@@ -23299,11 +23507,15 @@
       <c r="K42" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L42" s="28" t="s">
+      <c r="L42" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M42" s="28" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="33">
         <v>11</v>
       </c>
@@ -23337,11 +23549,15 @@
       <c r="K43" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L43" s="28" t="s">
+      <c r="L43" s="30">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>12.489699514499392</v>
+      </c>
+      <c r="M43" s="28" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="33">
         <v>126</v>
       </c>
@@ -23375,11 +23591,15 @@
       <c r="K44" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L44" s="28" t="s">
+      <c r="L44" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M44" s="28" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="33">
         <v>150</v>
       </c>
@@ -23413,11 +23633,15 @@
       <c r="K45" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L45" s="28" t="s">
+      <c r="L45" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M45" s="28" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="33">
         <v>193</v>
       </c>
@@ -23451,11 +23675,15 @@
       <c r="K46" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L46" s="28" t="s">
+      <c r="L46" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M46" s="28" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="33">
         <v>24</v>
       </c>
@@ -23489,11 +23717,15 @@
       <c r="K47" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L47" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L47" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M47" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="33">
         <v>27</v>
       </c>
@@ -23527,11 +23759,15 @@
       <c r="K48" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L48" s="28" t="s">
+      <c r="L48" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M48" s="28" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="33">
         <v>12</v>
       </c>
@@ -23565,11 +23801,15 @@
       <c r="K49" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L49" s="28" t="s">
+      <c r="L49" s="30">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>7.9848484848485022</v>
+      </c>
+      <c r="M49" s="28" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="33">
         <v>2</v>
       </c>
@@ -23603,11 +23843,15 @@
       <c r="K50" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L50" s="28" t="s">
+      <c r="L50" s="30">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>12.290458091618319</v>
+      </c>
+      <c r="M50" s="28" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="33">
         <v>274</v>
       </c>
@@ -23641,11 +23885,15 @@
       <c r="K51" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L51" s="28" t="s">
+      <c r="L51" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M51" s="28" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="33">
         <v>57</v>
       </c>
@@ -23677,11 +23925,15 @@
       <c r="K52" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L52" s="28" t="s">
+      <c r="L52" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M52" s="28" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="33">
         <v>13</v>
       </c>
@@ -23715,11 +23967,15 @@
       <c r="K53" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L53" s="28" t="s">
+      <c r="L53" s="30">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>23.001386962552012</v>
+      </c>
+      <c r="M53" s="28" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="33">
         <v>249</v>
       </c>
@@ -23753,11 +24009,15 @@
       <c r="K54" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L54" s="28" t="s">
+      <c r="L54" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M54" s="28" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="33">
         <v>28</v>
       </c>
@@ -23791,11 +24051,15 @@
       <c r="K55" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L55" s="28" t="s">
+      <c r="L55" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M55" s="28" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="33">
         <v>284</v>
       </c>
@@ -23829,11 +24093,15 @@
       <c r="K56" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L56" s="28" t="s">
+      <c r="L56" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M56" s="28" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="33">
         <v>278</v>
       </c>
@@ -23867,11 +24135,15 @@
       <c r="K57" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L57" s="28" t="s">
+      <c r="L57" s="30">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>1.304347826086957</v>
+      </c>
+      <c r="M57" s="28" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="33">
         <v>279</v>
       </c>
@@ -23905,11 +24177,15 @@
       <c r="K58" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L58" s="28" t="s">
+      <c r="L58" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M58" s="28" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="33">
         <v>151</v>
       </c>
@@ -23943,11 +24219,15 @@
       <c r="K59" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L59" s="28" t="s">
+      <c r="L59" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M59" s="28" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="33">
         <v>152</v>
       </c>
@@ -23981,11 +24261,15 @@
       <c r="K60" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L60" s="28" t="s">
+      <c r="L60" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M60" s="28" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="33">
         <v>153</v>
       </c>
@@ -24019,11 +24303,15 @@
       <c r="K61" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L61" s="28" t="s">
+      <c r="L61" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M61" s="28" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="33">
         <v>154</v>
       </c>
@@ -24057,11 +24345,15 @@
       <c r="K62" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L62" s="28" t="s">
+      <c r="L62" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M62" s="28" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="33">
         <v>30</v>
       </c>
@@ -24095,11 +24387,15 @@
       <c r="K63" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L63" s="28" t="s">
+      <c r="L63" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M63" s="28" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="33">
         <v>59</v>
       </c>
@@ -24133,11 +24429,15 @@
       <c r="K64" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L64" s="28" t="s">
+      <c r="L64" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M64" s="28" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="33">
         <v>155</v>
       </c>
@@ -24171,11 +24471,15 @@
       <c r="K65" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L65" s="28" t="s">
+      <c r="L65" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M65" s="28" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A66" s="33">
         <v>60</v>
       </c>
@@ -24209,11 +24513,15 @@
       <c r="K66" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L66" s="28" t="s">
+      <c r="L66" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M66" s="28" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="33">
         <v>139</v>
       </c>
@@ -24247,11 +24555,15 @@
       <c r="K67" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L67" s="28" t="s">
+      <c r="L67" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M67" s="28" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="33">
         <v>156</v>
       </c>
@@ -24285,11 +24597,15 @@
       <c r="K68" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L68" s="28" t="s">
+      <c r="L68" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M68" s="28" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="33">
         <v>39</v>
       </c>
@@ -24323,11 +24639,15 @@
       <c r="K69" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L69" s="28" t="s">
+      <c r="L69" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M69" s="28" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" s="33">
         <v>62</v>
       </c>
@@ -24361,11 +24681,15 @@
       <c r="K70" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L70" s="28" t="s">
+      <c r="L70" s="30">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>28.357762488782537</v>
+      </c>
+      <c r="M70" s="28" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="33">
         <v>26</v>
       </c>
@@ -24399,11 +24723,15 @@
       <c r="K71" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L71" s="28" t="s">
+      <c r="L71" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M71" s="28" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A72" s="33">
         <v>8</v>
       </c>
@@ -24437,11 +24765,15 @@
       <c r="K72" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L72" s="28" t="s">
+      <c r="L72" s="30">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>19.484473310330827</v>
+      </c>
+      <c r="M72" s="28" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A73" s="33">
         <v>104</v>
       </c>
@@ -24475,11 +24807,15 @@
       <c r="K73" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L73" s="28" t="s">
+      <c r="L73" s="30">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>31.815561959654207</v>
+      </c>
+      <c r="M73" s="28" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A74" s="33">
         <v>185</v>
       </c>
@@ -24511,11 +24847,15 @@
       <c r="K74" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L74" s="28" t="s">
+      <c r="L74" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M74" s="28" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" s="33">
         <v>157</v>
       </c>
@@ -24549,11 +24889,15 @@
       <c r="K75" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L75" s="28" t="s">
+      <c r="L75" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M75" s="28" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="33">
         <v>19</v>
       </c>
@@ -24587,11 +24931,15 @@
       <c r="K76" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L76" s="28" t="s">
+      <c r="L76" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M76" s="28" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" s="33">
         <v>242</v>
       </c>
@@ -24623,11 +24971,15 @@
       <c r="K77" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L77" s="28" t="s">
+      <c r="L77" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M77" s="28" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="33">
         <v>240</v>
       </c>
@@ -24659,11 +25011,15 @@
       <c r="K78" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L78" s="28" t="s">
+      <c r="L78" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M78" s="28" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" s="33">
         <v>131</v>
       </c>
@@ -24697,11 +25053,15 @@
       <c r="K79" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L79" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L79" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M79" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A80" s="33">
         <v>68</v>
       </c>
@@ -24735,11 +25095,15 @@
       <c r="K80" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L80" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L80" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M80" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" s="33">
         <v>282</v>
       </c>
@@ -24773,11 +25137,15 @@
       <c r="K81" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L81" s="28" t="s">
+      <c r="L81" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M81" s="28" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" s="33">
         <v>31</v>
       </c>
@@ -24811,11 +25179,15 @@
       <c r="K82" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L82" s="28" t="s">
+      <c r="L82" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M82" s="28" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A83" s="33">
         <v>69</v>
       </c>
@@ -24849,11 +25221,15 @@
       <c r="K83" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L83" s="28" t="s">
+      <c r="L83" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M83" s="28" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" s="33">
         <v>1</v>
       </c>
@@ -24887,11 +25263,15 @@
       <c r="K84" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L84" s="28" t="s">
+      <c r="L84" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M84" s="28" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A85" s="33">
         <v>194</v>
       </c>
@@ -24925,11 +25305,15 @@
       <c r="K85" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L85" s="28" t="s">
+      <c r="L85" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M85" s="28" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="33">
         <v>280</v>
       </c>
@@ -24963,11 +25347,15 @@
       <c r="K86" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L86" s="28" t="s">
+      <c r="L86" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M86" s="28" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A87" s="33">
         <v>70</v>
       </c>
@@ -25001,11 +25389,15 @@
       <c r="K87" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L87" s="28" t="s">
+      <c r="L87" s="30">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>14.233420489660089</v>
+      </c>
+      <c r="M87" s="28" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" s="33">
         <v>231</v>
       </c>
@@ -25039,11 +25431,15 @@
       <c r="K88" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L88" s="28" t="s">
+      <c r="L88" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M88" s="28" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" s="33">
         <v>232</v>
       </c>
@@ -25077,11 +25473,15 @@
       <c r="K89" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L89" s="28" t="s">
+      <c r="L89" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M89" s="28" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" s="33">
         <v>233</v>
       </c>
@@ -25115,11 +25515,15 @@
       <c r="K90" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L90" s="28" t="s">
+      <c r="L90" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M90" s="28" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A91" s="33">
         <v>71</v>
       </c>
@@ -25153,11 +25557,15 @@
       <c r="K91" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L91" s="28" t="s">
+      <c r="L91" s="30">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>15.235938089845229</v>
+      </c>
+      <c r="M91" s="28" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A92" s="33">
         <v>128</v>
       </c>
@@ -25191,11 +25599,15 @@
       <c r="K92" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L92" s="28" t="s">
+      <c r="L92" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M92" s="28" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A93" s="33">
         <v>198</v>
       </c>
@@ -25229,11 +25641,15 @@
       <c r="K93" s="28" t="s">
         <v>462</v>
       </c>
-      <c r="L93" s="28" t="s">
+      <c r="L93" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M93" s="28" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" s="33">
         <v>281</v>
       </c>
@@ -25267,11 +25683,15 @@
       <c r="K94" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L94" s="28" t="s">
+      <c r="L94" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M94" s="28" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A95" s="33">
         <v>72</v>
       </c>
@@ -25305,11 +25725,15 @@
       <c r="K95" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L95" s="28" t="s">
+      <c r="L95" s="30">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>15.298934691987013</v>
+      </c>
+      <c r="M95" s="28" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" s="33">
         <v>42</v>
       </c>
@@ -25341,11 +25765,15 @@
       <c r="K96" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L96" s="28" t="s">
+      <c r="L96" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M96" s="28" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" s="33">
         <v>221</v>
       </c>
@@ -25379,11 +25807,15 @@
       <c r="K97" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L97" s="28" t="s">
+      <c r="L97" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M97" s="28" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" s="33">
         <v>63</v>
       </c>
@@ -25417,11 +25849,15 @@
       <c r="K98" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L98" s="28" t="s">
+      <c r="L98" s="30">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>12.919518072289142</v>
+      </c>
+      <c r="M98" s="28" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A99" s="33">
         <v>6</v>
       </c>
@@ -25455,11 +25891,15 @@
       <c r="K99" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L99" s="28" t="s">
+      <c r="L99" s="30">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>9.2815107029683706</v>
+      </c>
+      <c r="M99" s="28" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A100" s="33">
         <v>15</v>
       </c>
@@ -25493,11 +25933,15 @@
       <c r="K100" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L100" s="28" t="s">
+      <c r="L100" s="30">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>8.731811697574889</v>
+      </c>
+      <c r="M100" s="28" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A101" s="33">
         <v>43</v>
       </c>
@@ -25531,11 +25975,15 @@
       <c r="K101" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L101" s="28" t="s">
+      <c r="L101" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M101" s="28" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A102" s="33">
         <v>277</v>
       </c>
@@ -25569,11 +26017,15 @@
       <c r="K102" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L102" s="28" t="s">
+      <c r="L102" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M102" s="28" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A103" s="33">
         <v>16</v>
       </c>
@@ -25607,11 +26059,15 @@
       <c r="K103" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L103" s="28" t="s">
+      <c r="L103" s="30">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>20.443698607148871</v>
+      </c>
+      <c r="M103" s="28" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" s="33">
         <v>5</v>
       </c>
@@ -25645,11 +26101,15 @@
       <c r="K104" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L104" s="28" t="s">
+      <c r="L104" s="30">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>10.309459104058897</v>
+      </c>
+      <c r="M104" s="28" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A105" s="33">
         <v>73</v>
       </c>
@@ -25683,11 +26143,15 @@
       <c r="K105" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L105" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L105" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M105" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A106" s="33">
         <v>74</v>
       </c>
@@ -25721,11 +26185,15 @@
       <c r="K106" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L106" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L106" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M106" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A107" s="33">
         <v>273</v>
       </c>
@@ -25757,11 +26225,15 @@
       <c r="K107" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L107" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L107" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M107" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A108" s="33">
         <v>272</v>
       </c>
@@ -25793,11 +26265,15 @@
       <c r="K108" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L108" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L108" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M108" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109" s="33">
         <v>34</v>
       </c>
@@ -25829,11 +26305,15 @@
       <c r="K109" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L109" s="28" t="s">
+      <c r="L109" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M109" s="28" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A110" s="33">
         <v>75</v>
       </c>
@@ -25865,11 +26345,15 @@
       <c r="K110" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L110" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L110" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M110" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A111" s="33">
         <v>76</v>
       </c>
@@ -25901,11 +26385,15 @@
       <c r="K111" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L111" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L111" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M111" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A112" s="33">
         <v>271</v>
       </c>
@@ -25937,11 +26425,15 @@
       <c r="K112" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L112" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L112" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M112" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A113" s="33">
         <v>77</v>
       </c>
@@ -25973,11 +26465,15 @@
       <c r="K113" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L113" s="28" t="s">
+      <c r="L113" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M113" s="28" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" s="33">
         <v>130</v>
       </c>
@@ -26011,11 +26507,15 @@
       <c r="K114" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L114" s="28" t="s">
+      <c r="L114" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M114" s="28" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A115" s="33">
         <v>195</v>
       </c>
@@ -26049,11 +26549,15 @@
       <c r="K115" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L115" s="28" t="s">
+      <c r="L115" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M115" s="28" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" s="33">
         <v>78</v>
       </c>
@@ -26087,11 +26591,15 @@
       <c r="K116" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L116" s="28" t="s">
+      <c r="L116" s="30">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>18.478260869565219</v>
+      </c>
+      <c r="M116" s="28" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A117" s="33">
         <v>47</v>
       </c>
@@ -26125,11 +26633,15 @@
       <c r="K117" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L117" s="28" t="s">
+      <c r="L117" s="30">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>15.235049568276294</v>
+      </c>
+      <c r="M117" s="28" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A118" s="33">
         <v>158</v>
       </c>
@@ -26161,11 +26673,15 @@
       <c r="K118" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L118" s="28" t="s">
+      <c r="L118" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M118" s="28" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A119" s="33">
         <v>241</v>
       </c>
@@ -26197,11 +26713,15 @@
       <c r="K119" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L119" s="28" t="s">
+      <c r="L119" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M119" s="28" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A120" s="33">
         <v>80</v>
       </c>
@@ -26233,11 +26753,15 @@
       <c r="K120" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L120" s="28" t="s">
+      <c r="L120" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M120" s="28" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A121" s="33">
         <v>81</v>
       </c>
@@ -26271,11 +26795,15 @@
       <c r="K121" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L121" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L121" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M121" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A122" s="33">
         <v>82</v>
       </c>
@@ -26309,11 +26837,15 @@
       <c r="K122" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L122" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L122" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M122" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A123" s="33">
         <v>83</v>
       </c>
@@ -26347,11 +26879,15 @@
       <c r="K123" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L123" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L123" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M123" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A124" s="33">
         <v>84</v>
       </c>
@@ -26385,11 +26921,15 @@
       <c r="K124" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L124" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L124" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M124" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A125" s="33">
         <v>85</v>
       </c>
@@ -26423,11 +26963,15 @@
       <c r="K125" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L125" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L125" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M125" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A126" s="33">
         <v>86</v>
       </c>
@@ -26461,11 +27005,15 @@
       <c r="K126" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L126" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L126" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M126" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A127" s="33">
         <v>87</v>
       </c>
@@ -26497,11 +27045,15 @@
       <c r="K127" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L127" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L127" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M127" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A128" s="33">
         <v>88</v>
       </c>
@@ -26533,11 +27085,15 @@
       <c r="K128" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L128" s="28" t="s">
+      <c r="L128" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M128" s="28" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A129" s="33">
         <v>270</v>
       </c>
@@ -26569,11 +27125,15 @@
       <c r="K129" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L129" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L129" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M129" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A130" s="33">
         <v>89</v>
       </c>
@@ -26605,11 +27165,15 @@
       <c r="K130" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L130" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L130" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M130" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A131" s="33">
         <v>268</v>
       </c>
@@ -26641,11 +27205,15 @@
       <c r="K131" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L131" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L131" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M131" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A132" s="33">
         <v>269</v>
       </c>
@@ -26679,11 +27247,15 @@
       <c r="K132" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L132" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="L132" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M132" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A133" s="33">
         <v>90</v>
       </c>
@@ -26717,11 +27289,15 @@
       <c r="K133" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L133" s="28" t="s">
+      <c r="L133" s="30">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>19.425113464447819</v>
+      </c>
+      <c r="M133" s="28" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A134" s="33">
         <v>267</v>
       </c>
@@ -26755,11 +27331,15 @@
       <c r="K134" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L134" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L134" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M134" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A135" s="33">
         <v>91</v>
       </c>
@@ -26791,11 +27371,15 @@
       <c r="K135" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L135" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L135" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M135" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A136" s="33">
         <v>92</v>
       </c>
@@ -26827,11 +27411,15 @@
       <c r="K136" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L136" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L136" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M136" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A137" s="33">
         <v>93</v>
       </c>
@@ -26863,11 +27451,15 @@
       <c r="K137" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L137" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L137" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M137" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A138" s="33">
         <v>94</v>
       </c>
@@ -26899,11 +27491,15 @@
       <c r="K138" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L138" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L138" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M138" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A139" s="33">
         <v>95</v>
       </c>
@@ -26935,11 +27531,15 @@
       <c r="K139" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L139" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L139" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M139" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A140" s="33">
         <v>266</v>
       </c>
@@ -26973,11 +27573,15 @@
       <c r="K140" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L140" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L140" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M140" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A141" s="33">
         <v>264</v>
       </c>
@@ -27011,11 +27615,15 @@
       <c r="K141" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L141" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L141" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M141" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A142" s="33">
         <v>263</v>
       </c>
@@ -27049,11 +27657,15 @@
       <c r="K142" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L142" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L142" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M142" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A143" s="33">
         <v>96</v>
       </c>
@@ -27087,11 +27699,15 @@
       <c r="K143" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L143" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L143" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M143" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A144" s="33">
         <v>260</v>
       </c>
@@ -27125,11 +27741,15 @@
       <c r="K144" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L144" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L144" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M144" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A145" s="33">
         <v>262</v>
       </c>
@@ -27161,11 +27781,15 @@
       <c r="K145" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L145" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L145" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M145" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A146" s="33">
         <v>265</v>
       </c>
@@ -27199,11 +27823,15 @@
       <c r="K146" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L146" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L146" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M146" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A147" s="33">
         <v>97</v>
       </c>
@@ -27237,11 +27865,15 @@
       <c r="K147" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L147" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L147" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M147" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A148" s="33">
         <v>261</v>
       </c>
@@ -27273,11 +27905,15 @@
       <c r="K148" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L148" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L148" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M148" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A149" s="33">
         <v>98</v>
       </c>
@@ -27311,11 +27947,15 @@
       <c r="K149" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L149" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L149" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M149" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A150" s="33">
         <v>99</v>
       </c>
@@ -27349,11 +27989,15 @@
       <c r="K150" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L150" s="28" t="s">
+      <c r="L150" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M150" s="28" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A151" s="33">
         <v>102</v>
       </c>
@@ -27387,11 +28031,15 @@
       <c r="K151" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L151" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L151" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M151" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A152" s="33">
         <v>100</v>
       </c>
@@ -27425,11 +28073,15 @@
       <c r="K152" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L152" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L152" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M152" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A153" s="33">
         <v>159</v>
       </c>
@@ -27463,11 +28115,15 @@
       <c r="K153" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L153" s="28" t="s">
+      <c r="L153" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M153" s="28" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A154" s="33">
         <v>196</v>
       </c>
@@ -27501,11 +28157,15 @@
       <c r="K154" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L154" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L154" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M154" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A155" s="33">
         <v>247</v>
       </c>
@@ -27539,11 +28199,15 @@
       <c r="K155" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L155" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L155" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M155" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A156" s="33">
         <v>259</v>
       </c>
@@ -27577,11 +28241,15 @@
       <c r="K156" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L156" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L156" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M156" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A157" s="33">
         <v>101</v>
       </c>
@@ -27615,11 +28283,15 @@
       <c r="K157" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L157" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L157" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M157" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A158" s="33">
         <v>105</v>
       </c>
@@ -27653,11 +28325,15 @@
       <c r="K158" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L158" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L158" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M158" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A159" s="33">
         <v>38</v>
       </c>
@@ -27691,11 +28367,15 @@
       <c r="K159" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L159" s="28" t="s">
+      <c r="L159" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M159" s="28" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A160" s="33">
         <v>107</v>
       </c>
@@ -27729,11 +28409,15 @@
       <c r="K160" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L160" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L160" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M160" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A161" s="33">
         <v>108</v>
       </c>
@@ -27767,11 +28451,15 @@
       <c r="K161" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L161" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L161" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M161" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A162" s="33">
         <v>40</v>
       </c>
@@ -27805,11 +28493,15 @@
       <c r="K162" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L162" s="28" t="s">
+      <c r="L162" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M162" s="28" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A163" s="33">
         <v>160</v>
       </c>
@@ -27843,11 +28535,15 @@
       <c r="K163" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L163" s="28" t="s">
+      <c r="L163" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M163" s="28" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A164" s="33">
         <v>161</v>
       </c>
@@ -27881,11 +28577,15 @@
       <c r="K164" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L164" s="28" t="s">
+      <c r="L164" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M164" s="28" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A165" s="33">
         <v>206</v>
       </c>
@@ -27919,11 +28619,15 @@
       <c r="K165" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L165" s="28" t="s">
+      <c r="L165" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M165" s="28" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A166" s="33">
         <v>209</v>
       </c>
@@ -27957,11 +28661,15 @@
       <c r="K166" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L166" s="28" t="s">
+      <c r="L166" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M166" s="28" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A167" s="33">
         <v>212</v>
       </c>
@@ -27995,11 +28703,15 @@
       <c r="K167" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L167" s="28" t="s">
+      <c r="L167" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M167" s="28" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A168" s="33">
         <v>110</v>
       </c>
@@ -28033,11 +28745,15 @@
       <c r="K168" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L168" s="28" t="s">
+      <c r="L168" s="30">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>37.476340694006346</v>
+      </c>
+      <c r="M168" s="28" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="169" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A169" s="33">
         <v>129</v>
       </c>
@@ -28071,11 +28787,15 @@
       <c r="K169" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L169" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L169" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M169" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A170" s="33">
         <v>41</v>
       </c>
@@ -28109,11 +28829,15 @@
       <c r="K170" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L170" s="28" t="s">
+      <c r="L170" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M170" s="28" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="171" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A171" s="33">
         <v>48</v>
       </c>
@@ -28147,11 +28871,15 @@
       <c r="K171" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L171" s="28" t="s">
+      <c r="L171" s="30">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>22.986579378068722</v>
+      </c>
+      <c r="M171" s="28" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A172" s="33">
         <v>111</v>
       </c>
@@ -28185,11 +28913,15 @@
       <c r="K172" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L172" s="28" t="s">
+      <c r="L172" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M172" s="28" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A173" s="33">
         <v>162</v>
       </c>
@@ -28223,11 +28955,15 @@
       <c r="K173" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L173" s="28" t="s">
+      <c r="L173" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M173" s="28" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A174" s="33">
         <v>201</v>
       </c>
@@ -28261,11 +28997,15 @@
       <c r="K174" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L174" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L174" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M174" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A175" s="33">
         <v>258</v>
       </c>
@@ -28299,11 +29039,15 @@
       <c r="K175" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L175" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L175" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M175" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A176" s="33">
         <v>228</v>
       </c>
@@ -28337,11 +29081,15 @@
       <c r="K176" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L176" s="28" t="s">
+      <c r="L176" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M176" s="28" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A177" s="33">
         <v>230</v>
       </c>
@@ -28375,11 +29123,15 @@
       <c r="K177" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L177" s="28" t="s">
+      <c r="L177" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M177" s="28" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A178" s="33">
         <v>49</v>
       </c>
@@ -28413,11 +29165,15 @@
       <c r="K178" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L178" s="28" t="s">
+      <c r="L178" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M178" s="28" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A179" s="33">
         <v>9</v>
       </c>
@@ -28451,11 +29207,15 @@
       <c r="K179" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L179" s="28" t="s">
+      <c r="L179" s="30">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>9.4886199622515885</v>
+      </c>
+      <c r="M179" s="28" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="180" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A180" s="33">
         <v>112</v>
       </c>
@@ -28489,11 +29249,15 @@
       <c r="K180" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L180" s="28" t="s">
+      <c r="L180" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M180" s="28" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A181" s="33">
         <v>163</v>
       </c>
@@ -28527,11 +29291,15 @@
       <c r="K181" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L181" s="28" t="s">
+      <c r="L181" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M181" s="28" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A182" s="33">
         <v>239</v>
       </c>
@@ -28565,11 +29333,15 @@
       <c r="K182" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L182" s="28" t="s">
+      <c r="L182" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M182" s="28" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="183" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A183" s="33">
         <v>113</v>
       </c>
@@ -28603,11 +29375,15 @@
       <c r="K183" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L183" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L183" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M183" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A184" s="33">
         <v>164</v>
       </c>
@@ -28641,11 +29417,15 @@
       <c r="K184" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L184" s="28" t="s">
+      <c r="L184" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M184" s="28" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A185" s="33">
         <v>205</v>
       </c>
@@ -28679,11 +29459,15 @@
       <c r="K185" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L185" s="28" t="s">
+      <c r="L185" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M185" s="28" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A186" s="33">
         <v>207</v>
       </c>
@@ -28717,11 +29501,15 @@
       <c r="K186" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L186" s="28" t="s">
+      <c r="L186" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M186" s="28" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A187" s="33">
         <v>210</v>
       </c>
@@ -28755,11 +29543,15 @@
       <c r="K187" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L187" s="28" t="s">
+      <c r="L187" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M187" s="28" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A188" s="33">
         <v>213</v>
       </c>
@@ -28793,11 +29585,15 @@
       <c r="K188" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L188" s="28" t="s">
+      <c r="L188" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M188" s="28" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A189" s="33">
         <v>165</v>
       </c>
@@ -28831,11 +29627,15 @@
       <c r="K189" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L189" s="28" t="s">
+      <c r="L189" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M189" s="28" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="190" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A190" s="33">
         <v>252</v>
       </c>
@@ -28869,11 +29669,15 @@
       <c r="K190" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L190" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L190" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M190" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A191" s="33">
         <v>166</v>
       </c>
@@ -28907,11 +29711,15 @@
       <c r="K191" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L191" s="28" t="s">
+      <c r="L191" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M191" s="28" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="192" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A192" s="33">
         <v>253</v>
       </c>
@@ -28945,11 +29753,15 @@
       <c r="K192" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L192" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L192" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M192" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A193" s="33">
         <v>138</v>
       </c>
@@ -28983,11 +29795,15 @@
       <c r="K193" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L193" s="28" t="s">
+      <c r="L193" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M193" s="28" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A194" s="33">
         <v>167</v>
       </c>
@@ -29021,11 +29837,15 @@
       <c r="K194" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L194" s="28" t="s">
+      <c r="L194" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M194" s="28" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="195" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A195" s="33">
         <v>255</v>
       </c>
@@ -29059,11 +29879,15 @@
       <c r="K195" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L195" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L195" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M195" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A196" s="33">
         <v>168</v>
       </c>
@@ -29095,11 +29919,15 @@
       <c r="K196" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L196" s="28" t="s">
+      <c r="L196" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M196" s="28" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A197" s="33">
         <v>36</v>
       </c>
@@ -29131,11 +29959,15 @@
       <c r="K197" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L197" s="28" t="s">
+      <c r="L197" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M197" s="28" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A198" s="33">
         <v>169</v>
       </c>
@@ -29169,11 +30001,15 @@
       <c r="K198" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L198" s="28" t="s">
+      <c r="L198" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M198" s="28" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="199" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A199" s="33">
         <v>256</v>
       </c>
@@ -29207,11 +30043,15 @@
       <c r="K199" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L199" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="200" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L199" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M199" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A200" s="33">
         <v>186</v>
       </c>
@@ -29245,11 +30085,15 @@
       <c r="K200" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L200" s="28" t="s">
+      <c r="L200" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M200" s="28" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A201" s="33">
         <v>22</v>
       </c>
@@ -29283,11 +30127,15 @@
       <c r="K201" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L201" s="28" t="s">
+      <c r="L201" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M201" s="28" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A202" s="33">
         <v>23</v>
       </c>
@@ -29321,11 +30169,15 @@
       <c r="K202" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L202" s="28" t="s">
+      <c r="L202" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M202" s="28" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="203" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A203" s="33">
         <v>257</v>
       </c>
@@ -29359,11 +30211,15 @@
       <c r="K203" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L203" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L203" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M203" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A204" s="33">
         <v>37</v>
       </c>
@@ -29397,11 +30253,15 @@
       <c r="K204" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L204" s="28" t="s">
+      <c r="L204" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M204" s="28" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A205" s="33">
         <v>170</v>
       </c>
@@ -29433,11 +30293,15 @@
       <c r="K205" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L205" s="28" t="s">
+      <c r="L205" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M205" s="28" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="206" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A206" s="33">
         <v>171</v>
       </c>
@@ -29469,11 +30333,15 @@
       <c r="K206" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L206" s="28" t="s">
+      <c r="L206" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M206" s="28" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A207" s="33">
         <v>235</v>
       </c>
@@ -29505,11 +30373,15 @@
       <c r="K207" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L207" s="28" t="s">
+      <c r="L207" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M207" s="28" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A208" s="33">
         <v>243</v>
       </c>
@@ -29541,11 +30413,15 @@
       <c r="K208" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L208" s="28" t="s">
+      <c r="L208" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M208" s="28" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A209" s="33">
         <v>244</v>
       </c>
@@ -29577,11 +30453,15 @@
       <c r="K209" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L209" s="28" t="s">
+      <c r="L209" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M209" s="28" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A210" s="33">
         <v>248</v>
       </c>
@@ -29613,11 +30493,15 @@
       <c r="K210" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L210" s="28" t="s">
+      <c r="L210" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M210" s="28" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A211" s="33">
         <v>35</v>
       </c>
@@ -29649,11 +30533,15 @@
       <c r="K211" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L211" s="28" t="s">
+      <c r="L211" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M211" s="28" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="212" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A212" s="33">
         <v>177</v>
       </c>
@@ -29685,11 +30573,15 @@
       <c r="K212" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L212" s="28" t="s">
+      <c r="L212" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M212" s="28" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A213" s="33">
         <v>178</v>
       </c>
@@ -29721,11 +30613,15 @@
       <c r="K213" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L213" s="28" t="s">
+      <c r="L213" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M213" s="28" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A214" s="33">
         <v>133</v>
       </c>
@@ -29757,11 +30653,15 @@
       <c r="K214" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L214" s="28" t="s">
+      <c r="L214" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M214" s="28" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A215" s="33">
         <v>134</v>
       </c>
@@ -29793,11 +30693,15 @@
       <c r="K215" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L215" s="28" t="s">
+      <c r="L215" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M215" s="28" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A216" s="33">
         <v>135</v>
       </c>
@@ -29829,11 +30733,15 @@
       <c r="K216" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L216" s="28" t="s">
+      <c r="L216" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M216" s="28" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A217" s="33">
         <v>219</v>
       </c>
@@ -29865,11 +30773,15 @@
       <c r="K217" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L217" s="28" t="s">
+      <c r="L217" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M217" s="28" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A218" s="33">
         <v>220</v>
       </c>
@@ -29901,11 +30813,15 @@
       <c r="K218" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L218" s="28" t="s">
+      <c r="L218" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M218" s="28" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="219" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A219" s="33">
         <v>116</v>
       </c>
@@ -29939,11 +30855,15 @@
       <c r="K219" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L219" s="28" t="s">
+      <c r="L219" s="30">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>18.286635758919587</v>
+      </c>
+      <c r="M219" s="28" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="220" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A220" s="33">
         <v>179</v>
       </c>
@@ -29977,11 +30897,15 @@
       <c r="K220" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L220" s="28" t="s">
+      <c r="L220" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M220" s="28" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="221" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A221" s="33">
         <v>172</v>
       </c>
@@ -30013,11 +30937,15 @@
       <c r="K221" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L221" s="28" t="s">
+      <c r="L221" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M221" s="28" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="222" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A222" s="33">
         <v>180</v>
       </c>
@@ -30049,11 +30977,15 @@
       <c r="K222" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L222" s="28" t="s">
+      <c r="L222" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M222" s="28" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="223" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A223" s="33">
         <v>181</v>
       </c>
@@ -30085,11 +31017,15 @@
       <c r="K223" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L223" s="28" t="s">
+      <c r="L223" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M223" s="28" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A224" s="33">
         <v>182</v>
       </c>
@@ -30121,11 +31057,15 @@
       <c r="K224" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L224" s="28" t="s">
+      <c r="L224" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M224" s="28" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="225" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A225" s="33">
         <v>238</v>
       </c>
@@ -30157,11 +31097,15 @@
       <c r="K225" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L225" s="28" t="s">
+      <c r="L225" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M225" s="28" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="226" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A226" s="33">
         <v>197</v>
       </c>
@@ -30193,11 +31137,15 @@
       <c r="K226" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L226" s="28" t="s">
+      <c r="L226" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M226" s="28" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="227" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A227" s="33">
         <v>245</v>
       </c>
@@ -30229,11 +31177,15 @@
       <c r="K227" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L227" s="28" t="s">
+      <c r="L227" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M227" s="28" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="228" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A228" s="33">
         <v>246</v>
       </c>
@@ -30265,11 +31217,15 @@
       <c r="K228" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L228" s="28" t="s">
+      <c r="L228" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M228" s="28" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="229" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A229" s="33">
         <v>173</v>
       </c>
@@ -30301,11 +31257,15 @@
       <c r="K229" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L229" s="28" t="s">
+      <c r="L229" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M229" s="28" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="230" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A230" s="33">
         <v>236</v>
       </c>
@@ -30337,11 +31297,15 @@
       <c r="K230" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L230" s="28" t="s">
+      <c r="L230" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M230" s="28" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="231" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A231" s="33">
         <v>132</v>
       </c>
@@ -30373,11 +31337,15 @@
       <c r="K231" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L231" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="232" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L231" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M231" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A232" s="33">
         <v>174</v>
       </c>
@@ -30409,11 +31377,15 @@
       <c r="K232" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L232" s="28" t="s">
+      <c r="L232" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M232" s="28" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="233" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A233" s="33">
         <v>175</v>
       </c>
@@ -30445,11 +31417,15 @@
       <c r="K233" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L233" s="28" t="s">
+      <c r="L233" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M233" s="28" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="234" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A234" s="33">
         <v>183</v>
       </c>
@@ -30481,11 +31457,15 @@
       <c r="K234" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L234" s="28" t="s">
+      <c r="L234" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M234" s="28" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="235" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A235" s="33">
         <v>140</v>
       </c>
@@ -30517,11 +31497,15 @@
       <c r="K235" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L235" s="28" t="s">
+      <c r="L235" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M235" s="28" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="236" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A236" s="33">
         <v>176</v>
       </c>
@@ -30553,11 +31537,15 @@
       <c r="K236" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L236" s="28" t="s">
+      <c r="L236" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M236" s="28" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="237" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A237" s="33">
         <v>50</v>
       </c>
@@ -30591,11 +31579,15 @@
       <c r="K237" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L237" s="28" t="s">
+      <c r="L237" s="30">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>24.569448147160792</v>
+      </c>
+      <c r="M237" s="28" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="238" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A238" s="33">
         <v>119</v>
       </c>
@@ -30627,11 +31619,15 @@
       <c r="K238" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L238" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="239" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L238" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M238" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A239" s="33">
         <v>17</v>
       </c>
@@ -30665,11 +31661,15 @@
       <c r="K239" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L239" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="240" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L239" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M239" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A240" s="33">
         <v>44</v>
       </c>
@@ -30703,11 +31703,15 @@
       <c r="K240" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L240" s="28" t="s">
+      <c r="L240" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M240" s="28" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="241" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A241" s="33">
         <v>121</v>
       </c>
@@ -30739,11 +31743,15 @@
       <c r="K241" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L241" s="28" t="s">
+      <c r="L241" s="30">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>21.623931623931647</v>
+      </c>
+      <c r="M241" s="28" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="242" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A242" s="33">
         <v>127</v>
       </c>
@@ -30775,11 +31783,15 @@
       <c r="K242" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L242" s="28" t="s">
+      <c r="L242" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M242" s="28" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="243" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A243" s="33">
         <v>202</v>
       </c>
@@ -30811,11 +31823,15 @@
       <c r="K243" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L243" s="28" t="s">
+      <c r="L243" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M243" s="28" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="244" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A244" s="33">
         <v>204</v>
       </c>
@@ -30847,11 +31863,15 @@
       <c r="K244" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L244" s="28" t="s">
+      <c r="L244" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M244" s="28" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="245" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A245" s="33">
         <v>32</v>
       </c>
@@ -30883,11 +31903,15 @@
       <c r="K245" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L245" s="28" t="s">
+      <c r="L245" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M245" s="28" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="246" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A246" s="33">
         <v>18</v>
       </c>
@@ -30921,11 +31945,15 @@
       <c r="K246" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L246" s="28" t="s">
+      <c r="L246" s="30">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>11.875633133328121</v>
+      </c>
+      <c r="M246" s="28" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="247" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A247" s="33">
         <v>124</v>
       </c>
@@ -30959,11 +31987,15 @@
       <c r="K247" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L247" s="28" t="s">
+      <c r="L247" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M247" s="28" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="248" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A248" s="33">
         <v>136</v>
       </c>
@@ -30997,11 +32029,15 @@
       <c r="K248" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L248" s="28" t="s">
+      <c r="L248" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M248" s="28" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="249" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A249" s="33">
         <v>137</v>
       </c>
@@ -31035,11 +32071,15 @@
       <c r="K249" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L249" s="28" t="s">
+      <c r="L249" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M249" s="28" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="250" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A250" s="33">
         <v>184</v>
       </c>
@@ -31073,11 +32113,15 @@
       <c r="K250" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L250" s="28" t="s">
+      <c r="L250" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M250" s="28" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="251" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A251" s="33">
         <v>187</v>
       </c>
@@ -31111,11 +32155,15 @@
       <c r="K251" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L251" s="28" t="s">
+      <c r="L251" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M251" s="28" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="252" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A252" s="33">
         <v>20</v>
       </c>
@@ -31149,11 +32197,15 @@
       <c r="K252" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L252" s="28" t="s">
+      <c r="L252" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M252" s="28" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="253" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A253" s="33">
         <v>21</v>
       </c>
@@ -31187,11 +32239,15 @@
       <c r="K253" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L253" s="28" t="s">
+      <c r="L253" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M253" s="28" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="254" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A254" s="33">
         <v>4</v>
       </c>
@@ -31225,11 +32281,15 @@
       <c r="K254" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L254" s="28" t="s">
+      <c r="L254" s="30">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>21.661409043112499</v>
+      </c>
+      <c r="M254" s="28" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="255" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A255" s="33">
         <v>122</v>
       </c>
@@ -31261,11 +32321,15 @@
       <c r="K255" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L255" s="28" t="s">
+      <c r="L255" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M255" s="28" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="256" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A256" s="33">
         <v>25</v>
       </c>
@@ -31299,11 +32363,15 @@
       <c r="K256" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L256" s="28" t="s">
+      <c r="L256" s="35">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>0</v>
+      </c>
+      <c r="M256" s="28" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="257" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A257" s="33">
         <v>7</v>
       </c>
@@ -31337,11 +32405,15 @@
       <c r="K257" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L257" s="28" t="s">
+      <c r="L257" s="30">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v>21.081081081081074</v>
+      </c>
+      <c r="M257" s="28" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="258" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A258" s="33">
         <v>3</v>
       </c>
@@ -31375,11 +32447,15 @@
       <c r="K258" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L258" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="259" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L258" s="35" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M258" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A259" s="34">
         <v>123</v>
       </c>
@@ -31413,11 +32489,15 @@
       <c r="K259" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="L259" s="29" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L259" s="36" t="str">
+        <f>IF(Таблица46[[#This Row],[Продолжительность]]&lt;&gt;0,Таблица46[[#This Row],[Факт,метров]]/Таблица46[[#This Row],[Продолжительность]],"")</f>
+        <v/>
+      </c>
+      <c r="M259" s="29" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A260" s="37" t="s">
         <v>654</v>
       </c>
@@ -31426,7 +32506,7 @@
       <c r="D260" s="37"/>
       <c r="E260" s="38">
         <f>SUBTOTAL(109,Таблица46[План, метров])</f>
-        <v>146006</v>
+        <v>769291</v>
       </c>
       <c r="F260" s="38">
         <f>SUBTOTAL(109,Таблица46[Факт,метров])</f>
@@ -31436,19 +32516,20 @@
       <c r="H260" s="37"/>
       <c r="I260" s="38">
         <f>SUBTOTAL(109,Таблица46[Продолжительность])</f>
-        <v>10202.899305555558</v>
+        <v>17161.875000000004</v>
       </c>
       <c r="J260" s="37"/>
       <c r="K260" s="37"/>
       <c r="L260" s="37"/>
-    </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M260" s="37"/>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.35">
       <c r="H262" s="41" t="s">
         <v>656</v>
       </c>
       <c r="I262" s="42">
         <f>Таблица46[[#Totals],[Факт,метров]]/Таблица46[[#Totals],[Продолжительность]]</f>
-        <v>14.719737547367897</v>
+        <v>8.751025164791141</v>
       </c>
     </row>
   </sheetData>
